--- a/casos_de_uso/Especificacao_casos_uso.xlsx
+++ b/casos_de_uso/Especificacao_casos_uso.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,15 +17,26 @@
     <sheet name="US-006 - Visualizar cardápio" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="US-007 - Criar comanda" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="US-008 - Gerenciar pedido" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="US-009 - Gerenciar pedido" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="US-010 - Confirmar pedido" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="US-011 - Fechar comanda" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="US-012 - Escolher método de pag" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="US-013 - Visualizar status do p" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="US-014 - Visualizar pagamentos " sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="US-015 - Visualizar mesas" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="US-016 - Visualizar comandas" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="US-017 - Gerenciar comandas" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="US-009 - Fechar comanda" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="US-010 - Reabrir comanda" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="US-011 - Dividir conta" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="US-012 - Visualizar status do p" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="US-013 - Receber pedido" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="US-014 - Informar tempo de prep" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="US-015 - Gerenciar status do pe" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="US-016 - Escolher método de pag" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="US-017 - Visualizar status do p" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="US-018 - Visualizar pagamentos " sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="US-019 - Gerenciar métodos de p" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="US-020 - Visualizar mesas" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="US-021 - Gerenciar pagamentos" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="US-022 - Gerenciar comandas" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="US-023 - Gerenciar mesas" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="US-024 - Gerenciar cardápio" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="US-025 - Gerenciar estoque" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="US-026 - Gerar relatórios" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="US-027 - Adicionar ingredientes" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="US-028 - Excluir ingredientes d" sheetId="29" state="visible" r:id="rId30"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -37,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="390">
   <si>
     <t xml:space="preserve">User Story</t>
   </si>
@@ -141,181 +152,181 @@
     <t xml:space="preserve">US009</t>
   </si>
   <si>
-    <t xml:space="preserve">Confirmar pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu como usuário quero confirmar meu pedido para que a cozinha comece a prepará-lo.</t>
+    <t xml:space="preserve">Fechar comanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu como usuário quero fechar minha comanda para que eu possa realizar o pagamento.</t>
   </si>
   <si>
     <t xml:space="preserve">US010</t>
   </si>
   <si>
-    <t xml:space="preserve">Fechar comanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu como usuário quero fechar minha comanda para que eu possa realizar o pagamento.</t>
+    <t xml:space="preserve">Reabrir comanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu como usuário quero reabrir minha comanda para que possa continuar realizando pedidos.</t>
   </si>
   <si>
     <t xml:space="preserve">US011</t>
   </si>
   <si>
-    <t xml:space="preserve">Reabrir comanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu como usuário quero reabrir minha comanda para que possa continuar realizando pedidos.</t>
+    <t xml:space="preserve">Dividir conta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu como usuário quero escolher itens da minha conta para que eu possa dividi-la com outra(s) pessoa(s)</t>
   </si>
   <si>
     <t xml:space="preserve">US012</t>
   </si>
   <si>
-    <t xml:space="preserve">Dividir conta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu como usuário quero escolher itens da minha conta para que eu possa dividi-la com outra(s) pessoa(s)</t>
+    <t xml:space="preserve">Visualizar status do pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu como usuário quero visualizar o status do meu pedido para que eu possa acompanhar o tempo de preparo</t>
   </si>
   <si>
     <t xml:space="preserve">US013</t>
   </si>
   <si>
-    <t xml:space="preserve">Visualizar status do pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu como usuário quero visualizar o status do meu pedido para que eu possa acompanhar o tempo de preparo</t>
+    <t xml:space="preserve">Receber pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu como integrante da cozinha quero receber o pedido para iniciar o preparo</t>
   </si>
   <si>
     <t xml:space="preserve">US014</t>
   </si>
   <si>
-    <t xml:space="preserve">Receber pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu como integrante da cozinha quero receber o pedido para iniciar o preparo</t>
+    <t xml:space="preserve">Informar tempo de preparo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu como integrante da cozinha quero informar o tempo de preparo para que o cliente possa acompanhar</t>
   </si>
   <si>
     <t xml:space="preserve">US015</t>
   </si>
   <si>
-    <t xml:space="preserve">Informar tempo de preparo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu como integrante da cozinha quero informar o tempo de preparo para que o cliente possa acompanhar</t>
+    <t xml:space="preserve">Gerenciar status do pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu como integrante da cozinha quero gerenciar o status do pedido para poder atualizá-lo em tempo real</t>
   </si>
   <si>
     <t xml:space="preserve">US016</t>
   </si>
   <si>
-    <t xml:space="preserve">Gerenciar status do peddio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu como integrante da cozinha quero gerenciar o status do pedido para poder atualizá-lo em tempo real</t>
+    <t xml:space="preserve">Escolher método de pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu como usuário quero escolher o método de pagamento para que eu possa realizar o pagamento.</t>
   </si>
   <si>
     <t xml:space="preserve">US017</t>
   </si>
   <si>
-    <t xml:space="preserve">Escolher método de pagamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu como usuário quero escolher o método de pagamento para que eu possa realizar o pagamento.</t>
+    <t xml:space="preserve">Visualizar status do pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu como administrador quero visualizar o status do pagamento para que possa verificar se a conta foi devidamente paga.</t>
   </si>
   <si>
     <t xml:space="preserve">US018</t>
   </si>
   <si>
-    <t xml:space="preserve">Visualizar status do pagamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu como administrador quero visualizar o status do pagamento para que possa verificar se a conta foi devidamente paga.</t>
+    <t xml:space="preserve">Visualizar pagamentos realizados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu como usuário quero visualizar os pagamentos realizados para que eu possa ter um controle dos pagamentos.</t>
   </si>
   <si>
     <t xml:space="preserve">US019</t>
   </si>
   <si>
-    <t xml:space="preserve">Visualizar pagamentos realizados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu como usuário quero visualizar os pagamentos realizados para que eu possa ter um controle dos pagamentos.</t>
+    <t xml:space="preserve">Gerenciar métodos de pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu como administrador quero gerenciar os métodos de pagamento que são aceitos em meu estabelecimento para melhor controle</t>
   </si>
   <si>
     <t xml:space="preserve">US020</t>
   </si>
   <si>
-    <t xml:space="preserve">Gerenciar métodos de pagamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu como administrador quero gerenciar os métodos de pagamento que são aceitos em meu estabelecimento para melhor controle</t>
+    <t xml:space="preserve">Visualizar mesas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu como administrador quero visualizar as mesas para saber quais mesas estão ocupadas e as comandas a elas associadas.</t>
   </si>
   <si>
     <t xml:space="preserve">US021</t>
   </si>
   <si>
-    <t xml:space="preserve">Visualizar mesas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu como administrador quero visualizar as mesas para saber quais mesas estão ocupadas e as comandas a elas associadas.</t>
+    <t xml:space="preserve">Gerenciar pagamentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu como administrador quero gerenciar os pagamentos realizados para controlar os status das mesas</t>
   </si>
   <si>
     <t xml:space="preserve">US022</t>
   </si>
   <si>
-    <t xml:space="preserve">Gerenciar pagamentos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu como administrador quero gerenciar os pagamentos realizados para controlar os status das mesas</t>
+    <t xml:space="preserve">Gerenciar comandas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu como administrador quero gerenciar comandas para saber a qual mesa ela está associada e seu status</t>
   </si>
   <si>
     <t xml:space="preserve">US023</t>
   </si>
   <si>
-    <t xml:space="preserve">Gerenciar comandas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu como administrador quero gerenciar comandas para saber a qual mesa ela está associada e seu status</t>
+    <t xml:space="preserve">Gerenciar mesas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu como administrador quero gerenciar as mesas para atualizar e saber seus status</t>
   </si>
   <si>
     <t xml:space="preserve">US024</t>
   </si>
   <si>
-    <t xml:space="preserve">Gerenciar mesas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu como administrador quero gerenciar as mesas para atualizar e saber seus status</t>
+    <t xml:space="preserve">Gerenciar cardápio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu como administrador quero gerenciar meu cardápio para poder atualizar e/ou personalizá-lo</t>
   </si>
   <si>
     <t xml:space="preserve">US025</t>
   </si>
   <si>
-    <t xml:space="preserve">Gerenciar cardápio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu como administrador quero gerenciar meu cardápio para poder atualizar e/ou personalizá-lo</t>
+    <t xml:space="preserve">Gerenciar estoque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu como administrador quero gerenciar estoque para poder ter controle do meu estoque</t>
   </si>
   <si>
     <t xml:space="preserve">US026</t>
   </si>
   <si>
-    <t xml:space="preserve">Gerenciar pedidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu como administrador quero gerenciar pedidos para poder listar, incluir, editar ou excluir um pedido</t>
+    <t xml:space="preserve">Gerar relatórios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu como administrador quero gerar relatórios para extrair métricas personalizadas</t>
   </si>
   <si>
     <t xml:space="preserve">US027</t>
   </si>
   <si>
-    <t xml:space="preserve">Gerenciar estoque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu como administrador quero gerenciar estoque para poder ter controle do meu estoque</t>
+    <t xml:space="preserve">Adicionar ingredientes ao estoque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu como administrador quero adicionar itens ao estoque para controlar o estoque</t>
   </si>
   <si>
     <t xml:space="preserve">US028</t>
   </si>
   <si>
-    <t xml:space="preserve">Gerar relatórios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu como administrador quero gerar relatórios para extrair métricas personalizadas</t>
+    <t xml:space="preserve">Excluir ingredientes do estoque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu como administrador quero excluir itens do estoque para melhorar o controle do estoque</t>
   </si>
   <si>
     <t xml:space="preserve">Nome do Caso de Uso</t>
@@ -515,25 +526,7 @@
     <t xml:space="preserve">6. Emite mensagem de usuário não existe</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">7. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Redireciona usuário para tela de cadastro de usuário</t>
-    </r>
+    <t xml:space="preserve">7. Redireciona usuário para tela de cadastro de usuário</t>
   </si>
   <si>
     <t xml:space="preserve">6. Digita código incorreto</t>
@@ -641,178 +634,626 @@
     <t xml:space="preserve">3. Exibe botão para fazer pedido</t>
   </si>
   <si>
-    <t xml:space="preserve">Adicionar itens ao pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permitir a adição de itens ao pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O usuário deve estar autenticado no sistema e possuir comanda aberta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Clicar no botão “Adicionar”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Adicionar item ao pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permitir a edição ou exclusão de um item do pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O usuário deve estar autenticado no sistema  possuir comanda aberta e pelo menos um item pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Clicar em “Editar pedido”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Abrir lista com item(ns) pedido(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Editar quantidade ou excluir item pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Clicar no botão “Confirmar”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Redirecionar para lista de item(ns) pedido(s) ou página principal do cardápio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirmar o pedido para enviar para a cozinha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O usuário deve estar autenticado e possuir pelo menos um item pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Clicar no botão “Enviar pedido”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Enviar pedido para cozinha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar o fechamento da comanda para pagamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O usuário deve estar autenticado no sistema, possuir comanda aberta e pelo menos um item pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Clicar em “Fechar comanda”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Redirecionar para “Resumo do(s) pedido(s)”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar a escolha do método para pagamento da conta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O usuário deve estar autenticado no sistema e a comanda deve estar com status de fechada.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Clicar em “Realizar pagamento”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Redirecionar para “Escolha o método de pagamento”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Exibir lista de métodos de pagamento (Pix, Cartão de crédito, Cartão de débito, Dinheiro)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Escolher o método de pagamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Realizar pagamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. Exibir mensagem de “Pagamento efetuado com sucesso”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluxos Alternativos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Escolher o método de pagamento “Dinheiro”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Exibir mensagem “Dirija-se ao caixa para efetuar o pagamento”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. Exibir mensagem de “Pagamento não efetuado”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. Redirecionar para “Escolha o método de pagamento”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Possibilitar a visualização do status do pagamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O usuário deve estar autenticado no sistema e ter realizado o pagamento da comanda.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Clicar em “Visualizar pagamento”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Exibir o status do pagamento (PAGO, PENDENTE, RECUSADO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualizar pagamento(s) realizado(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Possibilitar a visualização do(s) pagamento(s) já efetuado(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O usuário deve estar autenticado no sistema e ter realizado pelo menos um pagamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Clicar na aba “Pagamentos”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Exibir lista com pagamentos realizados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Possibilitar a visualização das mesas do restaurante</t>
+    <t xml:space="preserve">Criar pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. O administrador ou usuário devem estar autenticados no sistema
+2. O usuário deve ter realizado a escolha do restaurante
+3. O usuário deve ter escolhido uma mesa
+4. O usuário deve ter uma comanda aberta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Adiciona os itens do pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Clica em fazer pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Revisa itens do pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Clica em confirmar pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Envia o pedido para a cozinha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Exibe mensagem de confirmação de pedido enviado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Clica em editar pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Edita o pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Clica em confirmar pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excluir pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. O administrador ou usuário devem estar autenticados no sistema
+2. O usuário deve ter realizado a escolha do restaurante
+3. O usuário deve ter escolhido uma mesa
+4. O usuário deve ter uma comanda aberta
+5. O usuário deve ter pelo menos um pedido realizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Clica em excluir pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Confirma a exclusão do pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Exibe mensagem de exclusão efetuada com sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Estorna valor na conta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Informa que não é possível a exclusão de pedido já iniciado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar pedidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em listar pedidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Exibe lista de pedidos realizados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxo alternativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir o fechamento da comanda para que o usuário possa realizar o pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Fechar comanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Consolida valores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Exibe itens pedidos e valor total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir a reabertura da comanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. O administrador ou usuário devem estar autenticados no sistema
+2. O usuário deve ter realizado a escolha do restaurante
+3. O usuário deve ter escolhido uma mesa
+4. O usuário deve ter uma comanda aberta
+5. O usuário deve ter pelo menos um pedido realizado
+6. O usuário deve ter realizado o fechamento da comanda
+7. O usuário não deve ter realizado o pagamento da comanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Reabrir comanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Exibe mensagem de reabertura de comanda efetuada com sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir a divisão da conta por itens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. O administrador ou usuário devem estar autenticados no sistema
+2. O usuário deve ter realizado a escolha do restaurante
+3. O usuário deve ter escolhido uma mesa
+4. O usuário deve ter uma comanda aberta
+5. O usuário deve ter pelo menos dois pedidos realizados
+6. O usuário deve ter realizado o fechamento da comanda
+7. O usuário não deve ter realizado o pagamento da comanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Seleciona itens que deseja pagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Exibe total do valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Realiza pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Exibe mensagem de pagamento efetuado com sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Redireciona para itens que faltam pagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Seleciona itens que deseja enviar para outra comanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Seleciona a comanda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Confirma a comanda selecionada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Exibe mensagem de item(ns) enviados com sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Informa que não há outras comandas disponíveis para a mesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Exibe mensagem “Deseja criar nova comanda?”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Clica em Criar nova comanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Redireciona para fluxo de Criar comanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Preenche os dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. Confirma os dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13. Exibe valor total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14. Clica em Efetuar Pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15. Realiza pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16. Exibe mensagem de pagamento efetuado com sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17. Exibe comprovante de pagamento total da comanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir o acompanhamento do preparo do pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. O administrador ou usuário devem estar autenticados no sistema
+2. O usuário deve ter realizado a escolha do restaurante
+3. O usuário deve ter escolhido uma mesa
+4. O usuário deve ter uma comanda aberta
+5. O usuário deve ter realizado um pedido
+6. O pedido deve ter sido enviado para a cozinha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Acompanhar pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Exibe status do pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir o recebimento do pedido pela cozinha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cozinha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. O pedido deve ter sido enviado pelo cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Receber Pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Altera o status do pedido para Em Preparo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Notifica o usuário sobre a mudança do status do pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informar tempo de preparo do pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir o acompanhamento do tempo de preparo do pedido pelo cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. O pedido deve ter sido enviado pelo cliente
+2. O pedido deve ter sido recebido pela cozinha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Informa tempo previsto para preparo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Notifica o usuário sobre o tempo previsto para preparo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Identifica atraso no pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Solicita nova previsão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Informa nova previsão de tempo de preparo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Notifica usuário sobre mudança na previsão de tempo de preparo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir a atualização do status do pedido em tempo real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. O pedido deve ter sido enviado pelo cliente
+2. O pedido deve ter sido recebido pela cozinha
+3. O tempo de preparo deve ter sido informado pela cozinha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Atualiza status do pedido para Pronto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Notifica o usuário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Atualiza status do pedido para Pedido não pode ser preparado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Estorna o pedido na conta do usuário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir a escolha do método de pagamento pelo cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrador ou usuário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. A comanda deve ter pelo menos um pedido
+2. A comanda deve estar fechada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Escolher Métodos de Pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Seleciona o método de pagamento desejado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Informa dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Clica em Realizar Pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Valida informações de pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Exibe mensagem de Pagamento efetuado com sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Exibe mensagem de Pagamento não efetuado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir visualização do status do pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Usuário deve ter uma comanda aberta ou fechada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Visualizar Status Pagamentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Exibe status do pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Informa que há comanda(s) em aberto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Seleciona a comanda para efetuar pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Redireciona para Efetuar Pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir a visualização dos pagamentos realizados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Usuário deve ter realizado pelo menos um pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Visualizar Pagamentos Efetuados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Exibe lista de pagamentos realizados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não há fluxos alternativos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir o gerenciamento dos métodos de pagamentos aceitos pelo estabelecimento</t>
   </si>
   <si>
     <t xml:space="preserve">Administrador</t>
   </si>
   <si>
-    <t xml:space="preserve">O administrador deve estar autenticado no sistema.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Clicar na aba “Mesas”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Exibir lista com mesas e status das mesas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualizar comandas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Possibilitar a visualização das comandas do restaurante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Clicar na aba “Comandas”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Exibir lista com comandas e status das comandas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Possibilitar a edição ou exclusão das comandas do restaurante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O administrador deve estar autenticado no sistema e possuir pelo menos uma comanda cadastrada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Clicar na aba “Gerenciar comandas”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Clicar em editar comanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Atualizar dados ou excluir comanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Atualizar dados da comanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. Exibir mensagem de sucesso</t>
+    <t xml:space="preserve">1. Administrador estar autenticado no sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Gerenciar métodos de pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Selecionar métodos de pagamento aceitos pelo estabelecimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Confirmar métodos de pagamentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Exibe mensagem de métodos de pagamento cadastrados com sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir visualização dos status das mesas do estabelecimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Administrador deve estar autenticado no sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Visualizar Mesas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Exibe status das mesas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir o gerenciamento dos pagamentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Gerenciar Pagamentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Exibe status do pagamento por mesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Clica em Atualizar Status do Pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Atualiza Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Atualiza Status do Pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Exibe mensagem de Status atualizado com sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir a criação das comandas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Criar Comanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Cria a comanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Clica em Vincular comanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Seleciona a mesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Confirma a mesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Vincula a comanda à mesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Exibe mensagem de erro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir a edição das comandas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Editar Comanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Abre tela para edição da comanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Realiza a(s) alteração(ões)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Confirma alteração</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Realiza a alteração</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Exibe mensagem de Comanda editada com sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir a exclusão das comandas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Excluir Comanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Confirma a exclusão da comanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Exibe mensagem de Comanda excluída com sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar as comandas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Listar comandas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Exibe tela com comandas listadas por status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir a criação da mesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Criar Mesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Insere dados da mesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Confirma inserção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Exibe mensagem de Mesa adicionada com sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editar mesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Editar Mesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Modifica dados da mesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Confirma alteração</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Realiza a alteração</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Exibe mensagem de Mesa alterada com sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excluir mesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Excluir Mesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Confirma a exclusão da mesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Exibe mensagem de Mesa excluída com sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar mesas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Listar Mesas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Exibe tela com mesas do estabelecimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar cardápio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Criar Cardápio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Escolher itens do cardápio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Clicar em Confirmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Salva dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Exibe mensagem de cardápio criado com sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editar cardápio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Editar Cardápio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Editar o cardápio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Exibe mensagem de cardápio editado com sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excluir cardápio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Excluir Cardápio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Clica em Confirmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Exclui cardápio do banco de dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Exibe mensagem de cardápio excluído com sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar estoque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Criar Estoque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Cria tabela de estoque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Exibe mensagem de estoque criado com sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excluir estoque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Excluir Estoque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Confirma a exclusão do estoque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Exclui tabela de estoque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Exibe mensagem de estoque excluído com sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerenciar relatórios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emitir relatórios gerenciais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Emitir relatório</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Seleciona o relatório desejado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Exibe o relatório</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Administrador deve estar autenticado no sistema
+2. Estoque estar criado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Adicionar ingredientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Incluir informações sobre o ingrediente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Confirmar inclusão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Adicionar ingredientes ao estoque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Exibir ingredientes adicionados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Administrador deve estar autenticado no sistema
+2. Estoque estar criado
+3. Estoque deve possuir ao menos um ingrediente vinculado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clica em Excluir ingredientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Confirmar a exclusão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Excluir ingrediente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Exibir mensagem de ingrediente excluído com sucesso</t>
   </si>
 </sst>
 </file>
@@ -865,17 +1306,17 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -903,13 +1344,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFFFD7D7"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7D1D5"/>
         <bgColor rgb="FFFFD7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
   </fills>
@@ -969,7 +1416,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1046,10 +1493,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1058,15 +1501,59 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1074,39 +1561,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1144,7 +1619,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1189,11 +1664,11 @@
   </sheetPr>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.43"/>
@@ -1477,10 +1952,10 @@
       <c r="A17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="3"/>
@@ -1602,7 +2077,7 @@
       <c r="B28" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1639,132 +2114,126 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
+      <c r="B1" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>198</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="64.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-    </row>
-    <row r="7" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>199</v>
+        <v>101</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="31"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15" t="s">
-        <v>201</v>
-      </c>
+      <c r="A12" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="15"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="B14" s="15"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="31"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1780,23 +2249,21 @@
       <c r="B23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="15"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-    </row>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A17:B17"/>
+  <mergeCells count="3">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1816,102 +2283,103 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>34</v>
+      <c r="B1" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>205</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+        <v>98</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>206</v>
+        <v>101</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="31"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15" t="s">
-        <v>208</v>
-      </c>
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-    </row>
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+    </row>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1926,8 +2394,9 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A9:B9"/>
+  <mergeCells count="2">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1946,135 +2415,228 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>37</v>
+      <c r="B1" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>209</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-    </row>
-    <row r="7" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>210</v>
+        <v>101</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="31"/>
+      <c r="A8" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>102</v>
+      <c r="A10" s="15" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
+      <c r="A13" s="15" t="s">
+        <v>230</v>
+      </c>
       <c r="B13" s="15"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="31"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
+      <c r="B17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15"/>
+      <c r="A18" s="15" t="s">
+        <v>225</v>
+      </c>
       <c r="B18" s="15"/>
     </row>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" s="15"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B26" s="15"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2094,215 +2656,179 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>58</v>
+      <c r="B1" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>213</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="76.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-    </row>
-    <row r="7" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>214</v>
+        <v>101</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="31"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="A8" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15" t="s">
-        <v>217</v>
-      </c>
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="B14" s="15"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="B15" s="15"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15" t="s">
-        <v>220</v>
-      </c>
+      <c r="A16" s="33"/>
+      <c r="B16" s="37"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="B18" s="31"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B20" s="15"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15" t="s">
-        <v>217</v>
-      </c>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="B23" s="15"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="34"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="A24" s="33"/>
+      <c r="B24" s="34"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B27" s="15"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="37"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15" t="s">
-        <v>217</v>
-      </c>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="B30" s="15"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="B31" s="15"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15" t="s">
-        <v>224</v>
-      </c>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15" t="s">
-        <v>225</v>
-      </c>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2311,9 +2837,13 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A18:B18"/>
+  <mergeCells count="6">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2333,33 +2863,37 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>61</v>
+      <c r="B1" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2368,72 +2902,68 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-    </row>
-    <row r="7" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>227</v>
+        <v>101</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="31"/>
+      <c r="A8" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="38" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15" t="s">
-        <v>229</v>
-      </c>
+      <c r="A12" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="B14" s="31"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15"/>
@@ -2441,16 +2971,185 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14"/>
+      <c r="B17" s="30"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+    </row>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+    </row>
+    <row r="5" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="16"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" s="33"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="33"/>
+      <c r="B12" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15"/>
       <c r="B17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-    </row>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2473,8 +3172,8 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2486,7 +3185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2494,124 +3193,123 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>230</v>
+      <c r="B1" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="38.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-    </row>
-    <row r="7" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>232</v>
+        <v>101</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="31"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" s="33"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="B14" s="31"/>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-    </row>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2634,7 +3332,196 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+    </row>
+    <row r="5" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="16"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" s="14"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B16" s="15"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+    </row>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A14:B14"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2647,41 +3534,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>70</v>
+      <c r="B1" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2690,71 +3581,73 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-    </row>
-    <row r="7" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>237</v>
+        <v>101</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="31"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="B11" s="15"/>
+        <v>282</v>
+      </c>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="B13" s="15" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="B14" s="31"/>
+      <c r="A14" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>102</v>
+      <c r="A15" s="15"/>
+      <c r="B15" s="34" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2762,7 +3655,7 @@
       <c r="B16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2795,8 +3688,8 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2808,7 +3701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2816,33 +3709,37 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>240</v>
+      <c r="B1" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2851,79 +3748,73 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-    </row>
-    <row r="7" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>237</v>
+        <v>101</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="31"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" s="40"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15" t="s">
-        <v>243</v>
-      </c>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="B14" s="31"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="A15" s="15"/>
+      <c r="B15" s="34"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2956,189 +3847,8 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A14:B14"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C1048576"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-    </row>
-    <row r="7" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="31"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B11" s="15"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B13" s="15"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="B14" s="15"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="B18" s="31"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-    </row>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3161,7 +3871,7 @@
       <selection pane="topLeft" activeCell="B67" activeCellId="0" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
@@ -3375,10 +4085,6 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-    </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
         <v>94</v>
@@ -3412,14 +4118,14 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="21"/>
+      <c r="B40" s="20"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="14" t="s">
@@ -3464,10 +4170,10 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="21"/>
+      <c r="B48" s="20"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="17" t="s">
@@ -3478,38 +4184,38 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B50" s="22"/>
+      <c r="B50" s="15"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="22"/>
-      <c r="B51" s="23" t="s">
+      <c r="A51" s="15"/>
+      <c r="B51" s="18" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B52" s="22"/>
+      <c r="B52" s="15"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="24"/>
-      <c r="B53" s="22" t="s">
+      <c r="A53" s="14"/>
+      <c r="B53" s="15" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22" t="s">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="12" t="s">
@@ -3544,14 +4250,14 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B62" s="21"/>
+      <c r="B62" s="20"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="17" t="s">
@@ -3592,32 +4298,32 @@
       <c r="B69" s="15"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="24"/>
-      <c r="B71" s="24"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="22"/>
-      <c r="B73" s="23"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="22"/>
-      <c r="B74" s="22"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="24"/>
-      <c r="B75" s="22"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="15"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3629,6 +4335,2352 @@
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A62:B62"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="16"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" s="40"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15"/>
+      <c r="B17" s="34"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+    </row>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="16"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="40"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15"/>
+      <c r="B15" s="34"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+    </row>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="16"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" s="15"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15"/>
+      <c r="B15" s="34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+    </row>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B60" activeCellId="0" sqref="B60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14"/>
+      <c r="B9" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="16"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" s="14"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14"/>
+      <c r="B16" s="34" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="16"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B27" s="14"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="14"/>
+      <c r="B28" s="34" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B29" s="14"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B30" s="14"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="16"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14"/>
+      <c r="B35" s="34" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B36" s="14"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B37" s="14"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="16"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B46" s="14"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B47" s="34"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="16"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" s="40"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="16"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B57" s="14"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="15"/>
+      <c r="B58" s="34" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="16"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="40"/>
+    </row>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A59:B59"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B9" s="34"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B10" s="34"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="16"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="40"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="16"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B20" s="14"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="B21" s="34"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="16"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="40"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="16"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="B33" s="14"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B34" s="34"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="16"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="40"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="16"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B44" s="14"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="15"/>
+      <c r="B45" s="34" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="16"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" s="40"/>
+    </row>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A46:B46"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="16"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="40"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="16"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="B21" s="14"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="15" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="16"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="40"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="16"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="B35" s="14"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="16"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="40"/>
+    </row>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A38:B38"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="16"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="40"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="16"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="B20" s="14"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="16"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="40"/>
+    </row>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A23:B23"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="16"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="40"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15"/>
+      <c r="B16" s="34"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+    </row>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+    </row>
+    <row r="5" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="16"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="40"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15"/>
+      <c r="B18" s="34"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+    </row>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+    </row>
+    <row r="5" customFormat="false" ht="38.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="16"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="40"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="33"/>
+      <c r="B18" s="37"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+    </row>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3651,7 +6703,7 @@
       <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
@@ -3809,180 +6861,172 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19"/>
-      <c r="B28" s="22"/>
+      <c r="B28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24"/>
-      <c r="B34" s="22"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24"/>
-      <c r="B36" s="22"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="24"/>
-      <c r="B38" s="22"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="22"/>
-      <c r="B43" s="27"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="22"/>
-      <c r="B44" s="19"/>
+      <c r="A44" s="15"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="22"/>
-      <c r="B45" s="27"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="22"/>
-      <c r="B46" s="27"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="19"/>
-      <c r="B47" s="22"/>
+      <c r="B47" s="15"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="22"/>
-      <c r="B51" s="23"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="24"/>
-      <c r="B53" s="22"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="15"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="24"/>
-      <c r="B56" s="22"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="15"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="24"/>
-      <c r="B58" s="22"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="15"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="24"/>
-      <c r="B60" s="22"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="15"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="22"/>
-      <c r="B65" s="27"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="22"/>
-      <c r="B66" s="19"/>
+      <c r="A66" s="15"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="22"/>
-      <c r="B67" s="27"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="1"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4015,7 +7059,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
@@ -4230,20 +7274,20 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="28"/>
-      <c r="B37" s="29"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="23"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -4272,7 +7316,7 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
@@ -4364,112 +7408,103 @@
       <c r="B13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19"/>
-      <c r="B17" s="22"/>
+      <c r="B17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="15"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19"/>
-      <c r="B25" s="22"/>
+      <c r="B25" s="15"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="15"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="22"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="15"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="19"/>
-      <c r="B39" s="22"/>
+      <c r="B39" s="15"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
     </row>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4506,7 +7541,7 @@
       <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
@@ -4694,154 +7729,150 @@
       <c r="B28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19"/>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="22"/>
+      <c r="B30" s="15"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24"/>
-      <c r="B32" s="22" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24"/>
-      <c r="B34" s="22"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="22"/>
-      <c r="B39" s="27"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22"/>
-      <c r="B40" s="19"/>
+      <c r="A40" s="15"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="22"/>
-      <c r="B41" s="27"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="22"/>
-      <c r="B42" s="27"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="19"/>
-      <c r="B43" s="22"/>
+      <c r="B43" s="15"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="22"/>
-      <c r="B47" s="23"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="18"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="24"/>
-      <c r="B49" s="22"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="24"/>
-      <c r="B52" s="22"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="15"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="24"/>
-      <c r="B54" s="22"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="15"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="24"/>
-      <c r="B56" s="22"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="15"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="22"/>
-      <c r="B61" s="27"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="22"/>
-      <c r="B62" s="19"/>
+      <c r="A62" s="15"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="22"/>
-      <c r="B63" s="27"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="15"/>
@@ -4851,32 +7882,32 @@
       <c r="B65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="24"/>
-      <c r="B67" s="24"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="22"/>
-      <c r="B69" s="23"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="18"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="24"/>
-      <c r="B71" s="22"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="15"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4911,7 +7942,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
@@ -4975,104 +8006,103 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19"/>
-      <c r="B29" s="27"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
     </row>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5112,10 +8142,10 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
@@ -5227,8 +8257,8 @@
       <c r="B18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15"/>
@@ -5263,24 +8293,23 @@
       <c r="B27" s="15"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19"/>
-      <c r="B28" s="27"/>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10"/>
@@ -5359,119 +8388,400 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-    </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+    </row>
+    <row r="5" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="31"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="30"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="30"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="30"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="30"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="31"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="30"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="30"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="30"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="30"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" s="30"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="30"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+      <c r="B24" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B25" s="30" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" customFormat="false" ht="64.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B27" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="31"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
+      <c r="B30" s="30"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" s="30"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B32" s="30"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="B33" s="30"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35" s="30"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" s="30"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="31"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="30"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" s="30"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" s="30"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" s="30"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="30"/>
+      <c r="B45" s="30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" s="30"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9"/>
+      <c r="B47" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+    </row>
+    <row r="51" customFormat="false" ht="64.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="31"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
+      <c r="B52" s="31"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B53" s="29" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" s="15"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-    </row>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="B54" s="30"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="30"/>
+      <c r="B55" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="B56" s="31"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="30"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+    </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A9:B9"/>
+  <mergeCells count="6">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
